--- a/data/trans_orig/P04B1_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1932DCBD-5258-429C-8841-3AD58CD393E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A93957-3898-48A1-9555-10320C998668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF8F25C8-3B9B-40F4-93E6-955AC70ADA54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD20AB6-D707-4225-8F6B-317D5774935F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>60,32%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>58,73%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>39,68%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
   </si>
   <si>
     <t>41,27%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>67,9%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>67,28%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>32,72%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>71,85%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>67,47%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>66,9%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
   </si>
   <si>
     <t>32,53%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>33,1%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D301B7-063F-4122-8DD7-444A4EB32792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E762AEE-0BB8-47F6-8F35-3A2CFE86BF2E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>913</v>
       </c>
       <c r="I8" s="7">
-        <v>735150</v>
+        <v>735151</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246645</v>
+        <v>2246646</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1157,7 +1157,7 @@
         <v>749</v>
       </c>
       <c r="I10" s="7">
-        <v>523854</v>
+        <v>523855</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1259,7 +1259,7 @@
         <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>709553</v>
+        <v>709554</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P04B1_1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A93957-3898-48A1-9555-10320C998668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50DA12D-4BA2-42DA-A839-AED4A11351C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD20AB6-D707-4225-8F6B-317D5774935F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E18C6437-5064-48B0-9870-342B78B01499}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E762AEE-0BB8-47F6-8F35-3A2CFE86BF2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DE4E3A-490E-4656-9217-EF2B79DEAD95}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>425</v>
       </c>
       <c r="D4" s="7">
-        <v>326240</v>
+        <v>320627</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>862</v>
       </c>
       <c r="I4" s="7">
-        <v>481963</v>
+        <v>445469</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>1287</v>
       </c>
       <c r="N4" s="7">
-        <v>808203</v>
+        <v>766096</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>265</v>
       </c>
       <c r="D5" s="7">
-        <v>214569</v>
+        <v>193532</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>564</v>
       </c>
       <c r="I5" s="7">
-        <v>353326</v>
+        <v>309439</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>829</v>
       </c>
       <c r="N5" s="7">
-        <v>567895</v>
+        <v>502970</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540809</v>
+        <v>514159</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>835289</v>
+        <v>754908</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1376098</v>
+        <v>1269066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>1330</v>
       </c>
       <c r="D7" s="7">
-        <v>1466672</v>
+        <v>1669875</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>2003</v>
       </c>
       <c r="I7" s="7">
-        <v>1511495</v>
+        <v>1597460</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1011,7 @@
         <v>3333</v>
       </c>
       <c r="N7" s="7">
-        <v>2978166</v>
+        <v>3267335</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1032,7 @@
         <v>660</v>
       </c>
       <c r="D8" s="7">
-        <v>693257</v>
+        <v>618491</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
         <v>913</v>
       </c>
       <c r="I8" s="7">
-        <v>735151</v>
+        <v>637675</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1062,7 @@
         <v>1573</v>
       </c>
       <c r="N8" s="7">
-        <v>1428408</v>
+        <v>1256166</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1083,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2159929</v>
+        <v>2288366</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246646</v>
+        <v>2235135</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>4906</v>
       </c>
       <c r="N9" s="7">
-        <v>4406574</v>
+        <v>4523501</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1136,7 @@
         <v>492</v>
       </c>
       <c r="D10" s="7">
-        <v>481748</v>
+        <v>471600</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,31 +1151,31 @@
         <v>749</v>
       </c>
       <c r="I10" s="7">
-        <v>523855</v>
+        <v>490112</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1241</v>
       </c>
       <c r="N10" s="7">
-        <v>1005603</v>
+        <v>961712</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,46 +1187,46 @@
         <v>185</v>
       </c>
       <c r="D11" s="7">
-        <v>188741</v>
+        <v>172646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
       </c>
       <c r="I11" s="7">
-        <v>185699</v>
+        <v>166295</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>374440</v>
+        <v>338941</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1238,7 @@
         <v>677</v>
       </c>
       <c r="D12" s="7">
-        <v>670489</v>
+        <v>644246</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>709554</v>
+        <v>656407</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1676</v>
       </c>
       <c r="N12" s="7">
-        <v>1380043</v>
+        <v>1300653</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,46 +1291,46 @@
         <v>2247</v>
       </c>
       <c r="D13" s="7">
-        <v>2274660</v>
+        <v>2462103</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>3614</v>
       </c>
       <c r="I13" s="7">
-        <v>2517312</v>
+        <v>2533041</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>5861</v>
       </c>
       <c r="N13" s="7">
-        <v>4791972</v>
+        <v>4995143</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>1110</v>
       </c>
       <c r="D14" s="7">
-        <v>1096567</v>
+        <v>984668</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1727</v>
       </c>
       <c r="I14" s="7">
-        <v>1274176</v>
+        <v>1113408</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2837</v>
       </c>
       <c r="N14" s="7">
-        <v>2370743</v>
+        <v>2098077</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3357</v>
       </c>
       <c r="D15" s="7">
-        <v>3371227</v>
+        <v>3446771</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>5341</v>
       </c>
       <c r="I15" s="7">
-        <v>3791488</v>
+        <v>3646449</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>8698</v>
       </c>
       <c r="N15" s="7">
-        <v>7162715</v>
+        <v>7093220</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
